--- a/inst/extdata/toyFiles/ROC/rocSpA-unbalanced.xlsx
+++ b/inst/extdata/toyFiles/ROC/rocSpA-unbalanced.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigi\Documents\PHD-2021\mrmc\01. 学习\a1.多中心\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCE07E-CF74-42C9-8271-0BEEBCC4B094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E221E99D-1A10-5B40-8151-873E73FF4F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
     <sheet name="FP" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,8 +69,7 @@
     <t>SPLIT-PLOT-A</t>
   </si>
   <si>
-    <t>3,  4, 5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>3, 4, 5</t>
   </si>
 </sst>
 </file>
@@ -103,7 +102,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,112 +234,112 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="101">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -636,17 +635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.77734375" style="1"/>
-    <col min="6" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -663,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -680,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -697,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -714,7 +713,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -731,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -748,7 +747,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -765,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -782,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -799,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -816,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -833,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -850,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -867,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -884,7 +883,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -901,7 +900,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -918,7 +917,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -935,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -952,7 +951,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -969,7 +968,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -986,7 +985,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -1108,13 +1107,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1143,7 +1142,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1158,7 +1157,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1173,7 +1172,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1188,7 +1187,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1203,7 +1202,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1218,7 +1217,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1233,7 +1232,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1248,7 +1247,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1263,7 +1262,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1278,7 +1277,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1308,7 +1307,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1323,7 +1322,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1338,7 +1337,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1353,7 +1352,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1368,7 +1367,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1398,7 +1397,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1413,7 +1412,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1428,7 +1427,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -1514,20 +1513,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>18</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1899,6 +1898,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
     <ignoredError sqref="E12:E21" numberStoredAsText="1"/>
+    <ignoredError sqref="D13:D21" twoDigitTextYear="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
